--- a/协议.xlsx
+++ b/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>&lt;base&gt;</t>
   </si>
@@ -24,7 +24,7 @@
     <t>package</t>
   </si>
   <si>
-    <t>message</t>
+    <t>msg</t>
   </si>
   <si>
     <t>output</t>
@@ -174,7 +174,16 @@
     <t>&lt;/protos&gt;</t>
   </si>
   <si>
-    <t>sdf</t>
+    <t>test2.go</t>
+  </si>
+  <si>
+    <t>Test2GetInfo</t>
+  </si>
+  <si>
+    <t>test3.go</t>
+  </si>
+  <si>
+    <t>Test3GetInfo</t>
   </si>
 </sst>
 </file>
@@ -182,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,31 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +236,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -265,61 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +282,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -341,7 +342,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -363,13 +372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,43 +426,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,121 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,13 +581,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,32 +629,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +698,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,13 +841,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,7 +1201,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1231,952 +1240,952 @@
       <c r="B4" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="6"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,18 +2197,132 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2210,14 +2333,130 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
